--- a/documents/요구사항정의.xlsx
+++ b/documents/요구사항정의.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/project1/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5B79CD-7CEE-C847-B4CE-048C76A2A7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50466467-6EF4-1E48-B724-A90CECC4123A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="25600" windowHeight="14060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="2" r:id="rId2"/>
     <sheet name="Domain" sheetId="3" r:id="rId3"/>
+    <sheet name="UI" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>Software Requirements Specification (SRS) (&amp; System testing)</t>
   </si>
@@ -303,10 +304,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Sex</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Song</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -324,6 +321,57 @@
   </si>
   <si>
     <t>다이어그램 초안 디자인, 도메인 설계/코딩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>핵심 기능</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGN 로직</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 UI</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스트 CRUD</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignMember</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>금요일</t>
+  </si>
+  <si>
+    <t>다이어그램 수정, UI 디자인(figma), 도메인 수정, 코딩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_id값이 null로 들어가는 오류 잡기</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1050,6 +1098,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1164,23 +1215,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>694267</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>84664</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A077AB-F70C-DE4F-AC45-004064340092}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720D257E-1876-D540-BFED-E825FB436D5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,8 +1247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629400" y="850900"/>
-          <a:ext cx="4216400" cy="5473700"/>
+          <a:off x="16459200" y="592664"/>
+          <a:ext cx="6210300" cy="6756400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1208,23 +1259,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>11182</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270933</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>72100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>15815</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>659691</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A9E589-8BA8-1640-BBBA-70B987D65D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23828729-08F8-4845-AFC1-7ED114B6B6E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,8 +1291,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11627449" y="829734"/>
-          <a:ext cx="5039318" cy="5146614"/>
+          <a:off x="6079066" y="880533"/>
+          <a:ext cx="10345558" cy="7890934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>588433</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>97061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE98D3D-E3C3-1F49-8CBE-A8C3812D0880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="1744134"/>
+          <a:ext cx="7810500" cy="5431060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1486,19 +1586,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1547,11 +1647,11 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1579,11 +1679,11 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1710,13 +1810,13 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="81"/>
       <c r="U8" s="16"/>
       <c r="V8" s="18"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
@@ -1738,20 +1838,20 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="67.5" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="13"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1777,11 +1877,11 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="1"/>
       <c r="E11" s="25"/>
       <c r="F11" s="26"/>
@@ -1799,43 +1899,43 @@
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="24"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
       <c r="Z11" s="27"/>
     </row>
     <row r="12" spans="1:26" ht="57" customHeight="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="61" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="60" t="s">
+      <c r="K12" s="61" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="29"/>
@@ -1854,18 +1954,18 @@
       <c r="Y12" s="29"/>
       <c r="Z12" s="29"/>
     </row>
-    <row r="13" spans="1:26" ht="17">
-      <c r="A13" s="64"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+    <row r="13" spans="1:26">
+      <c r="A13" s="65"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="19"/>
@@ -1883,17 +1983,17 @@
       <c r="Z13" s="29"/>
     </row>
     <row r="14" spans="1:26" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
@@ -27431,17 +27531,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB86C-6AD9-5049-92DB-155A5D4AE1F7}">
-  <dimension ref="A13:L27"/>
+  <dimension ref="A13:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="64" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="37.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="10" max="10" width="38" customWidth="1"/>
     <col min="11" max="11" width="28.33203125" customWidth="1"/>
     <col min="12" max="12" width="29.83203125" customWidth="1"/>
   </cols>
@@ -27501,7 +27602,7 @@
     </row>
     <row r="16" spans="1:12" ht="62" customHeight="1">
       <c r="A16" s="48"/>
-      <c r="G16" s="89" t="s">
+      <c r="G16" s="90" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="51" t="s">
@@ -27514,7 +27615,7 @@
     </row>
     <row r="17" spans="1:12" ht="113" customHeight="1">
       <c r="A17" s="48"/>
-      <c r="G17" s="89"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="51" t="s">
         <v>57</v>
       </c>
@@ -27525,7 +27626,7 @@
     </row>
     <row r="18" spans="1:12" ht="94" customHeight="1">
       <c r="A18" s="48"/>
-      <c r="G18" s="89"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="51" t="s">
         <v>58</v>
       </c>
@@ -27547,7 +27648,7 @@
       <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" ht="38" customHeight="1">
-      <c r="G20" s="88" t="s">
+      <c r="G20" s="89" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="51" t="s">
@@ -27561,7 +27662,7 @@
       <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12" ht="68" customHeight="1">
-      <c r="G21" s="88"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="51" t="s">
         <v>55</v>
       </c>
@@ -27575,21 +27676,67 @@
         <v>7.24</v>
       </c>
       <c r="C27" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28" s="60">
+        <v>7.25</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="48"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27598,61 +27745,122 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48EE683-0C40-F646-B062-96441C20016D}">
-  <dimension ref="F4:O16"/>
+  <dimension ref="F3:U16"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView topLeftCell="A3" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="6:15">
+    <row r="3" spans="6:21">
+      <c r="S3" s="48"/>
+      <c r="U3" s="48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="6:21">
       <c r="I4" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="48"/>
-      <c r="O4" s="48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="6:15">
+      <c r="O4" s="48"/>
+    </row>
+    <row r="9" spans="6:21">
       <c r="F9" s="48" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="6:15">
+      <c r="G9" s="48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="6:21">
       <c r="G10" s="48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="6:21">
       <c r="G11" s="48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="6:21">
       <c r="G12" s="48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="6:21">
       <c r="G13" s="48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="6:21">
       <c r="G14" s="48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="6:21">
       <c r="G15" s="48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
-      <c r="G16" s="48" t="s">
-        <v>71</v>
+    <row r="16" spans="6:21">
+      <c r="G16" s="48"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522A1BF3-CE28-FC4D-B0ED-A8DF30BA63C3}">
+  <dimension ref="D9:P17"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="9" spans="4:16">
+      <c r="D9" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16">
+      <c r="N12" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16">
+      <c r="P13" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16">
+      <c r="P14" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16">
+      <c r="P15" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="15:16">
+      <c r="O17" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/documents/요구사항정의.xlsx
+++ b/documents/요구사항정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/project1/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50466467-6EF4-1E48-B724-A90CECC4123A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC88B02-219C-C143-BDA3-9948E5F6418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="25600" windowHeight="14060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>Software Requirements Specification (SRS) (&amp; System testing)</t>
   </si>
@@ -352,10 +352,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>1차 UI</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>포스트 CRUD</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -372,6 +368,42 @@
   </si>
   <si>
     <t>login_id값이 null로 들어가는 오류 잡기</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDoList</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_id값이 null로 들어가는 오류 잡기, 글쓰기(포스팅) 기능 시작</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 설계</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormData</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberForm</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostForm</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">글쓰기 후 저장 시 login 창으로 돌아가는 현상 해결하기(인증) </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostingService, PostingController 정리</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1185,13 +1217,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,6 +1374,94 @@
         <a:xfrm>
           <a:off x="2247900" y="1744134"/>
           <a:ext cx="7810500" cy="5431060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>193489</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>54287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>799353</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160DF8B6-2270-9B47-949E-3DE695137750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10876430" y="7898405"/>
+          <a:ext cx="4714688" cy="5399242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>803087</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>37351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54738</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331905D1-D4B6-6E41-943D-542853A6B2D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1624852" y="7694704"/>
+          <a:ext cx="7469298" cy="6200590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27533,8 +27653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB86C-6AD9-5049-92DB-155A5D4AE1F7}">
   <dimension ref="A13:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="117" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:I28"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -27602,7 +27722,7 @@
     </row>
     <row r="16" spans="1:12" ht="62" customHeight="1">
       <c r="A16" s="48"/>
-      <c r="G16" s="90" t="s">
+      <c r="G16" s="89" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="51" t="s">
@@ -27615,7 +27735,7 @@
     </row>
     <row r="17" spans="1:12" ht="113" customHeight="1">
       <c r="A17" s="48"/>
-      <c r="G17" s="90"/>
+      <c r="G17" s="89"/>
       <c r="H17" s="51" t="s">
         <v>57</v>
       </c>
@@ -27626,7 +27746,7 @@
     </row>
     <row r="18" spans="1:12" ht="94" customHeight="1">
       <c r="A18" s="48"/>
-      <c r="G18" s="90"/>
+      <c r="G18" s="89"/>
       <c r="H18" s="51" t="s">
         <v>58</v>
       </c>
@@ -27648,7 +27768,7 @@
       <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" ht="38" customHeight="1">
-      <c r="G20" s="89" t="s">
+      <c r="G20" s="91" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="51" t="s">
@@ -27662,7 +27782,7 @@
       <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12" ht="68" customHeight="1">
-      <c r="G21" s="89"/>
+      <c r="G21" s="91"/>
       <c r="H21" s="51" t="s">
         <v>55</v>
       </c>
@@ -27671,6 +27791,20 @@
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
     </row>
+    <row r="25" spans="1:12">
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="G26" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+    </row>
     <row r="27" spans="1:12">
       <c r="B27" s="59">
         <v>7.24</v>
@@ -27678,13 +27812,14 @@
       <c r="C27" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
       <c r="J27" s="48"/>
     </row>
     <row r="28" spans="1:12">
@@ -27692,51 +27827,83 @@
         <v>7.25</v>
       </c>
       <c r="C28" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91" t="s">
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="48"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29">
+        <v>7.28</v>
+      </c>
+      <c r="C29" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="48"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
+      <c r="D29" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="48" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D30:F30"/>
+  <mergeCells count="16">
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:K26"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27745,10 +27912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48EE683-0C40-F646-B062-96441C20016D}">
-  <dimension ref="F3:U16"/>
+  <dimension ref="F3:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -27771,7 +27938,7 @@
         <v>65</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="6:21">
@@ -27806,6 +27973,19 @@
     </row>
     <row r="16" spans="6:21">
       <c r="G16" s="48"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="G21" s="48" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -27818,15 +27998,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522A1BF3-CE28-FC4D-B0ED-A8DF30BA63C3}">
   <dimension ref="D9:P17"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="B33" zoomScale="68" workbookViewId="0">
+      <selection activeCell="T53" sqref="T53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="9" spans="4:16">
       <c r="D9" s="48" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="4:16">
@@ -27860,7 +28040,7 @@
         <v>81</v>
       </c>
       <c r="P17" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/documents/요구사항정의.xlsx
+++ b/documents/요구사항정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/project1/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/project1_Wonderwall/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC88B02-219C-C143-BDA3-9948E5F6418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19925452-75A9-DE4C-A03C-562105515036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="25600" windowHeight="14060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>Software Requirements Specification (SRS) (&amp; System testing)</t>
   </si>
@@ -404,6 +404,30 @@
   </si>
   <si>
     <t>PostingService, PostingController 정리</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 24일</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 25일</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 28일</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 30일</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요일</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 중복되는 계정이라면 오류를 알려주기</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -27653,8 +27677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB86C-6AD9-5049-92DB-155A5D4AE1F7}">
   <dimension ref="A13:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -27806,8 +27830,8 @@
       <c r="K26" s="90"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="B27" s="59">
-        <v>7.24</v>
+      <c r="B27" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="C27" s="48" t="s">
         <v>73</v>
@@ -27823,8 +27847,8 @@
       <c r="J27" s="48"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" s="60">
-        <v>7.25</v>
+      <c r="B28" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="48" t="s">
         <v>84</v>
@@ -27842,8 +27866,8 @@
       <c r="J28" s="48"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="B29">
-        <v>7.28</v>
+      <c r="B29" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="C29" s="48" t="s">
         <v>87</v>
@@ -27863,14 +27887,23 @@
       </c>
     </row>
     <row r="30" spans="1:12">
+      <c r="B30" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>100</v>
+      </c>
       <c r="D30" s="90"/>
       <c r="E30" s="90"/>
       <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
+      <c r="G30" s="90" t="s">
+        <v>101</v>
+      </c>
       <c r="H30" s="90"/>
       <c r="I30" s="90"/>
     </row>
     <row r="31" spans="1:12">
+      <c r="B31" s="60"/>
       <c r="D31" s="90"/>
       <c r="E31" s="90"/>
       <c r="F31" s="90"/>
@@ -27912,10 +27945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48EE683-0C40-F646-B062-96441C20016D}">
-  <dimension ref="F3:U21"/>
+  <dimension ref="C3:U31"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -27974,7 +28007,7 @@
     <row r="16" spans="6:21">
       <c r="G16" s="48"/>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="3:7">
       <c r="F20" s="48" t="s">
         <v>91</v>
       </c>
@@ -27982,9 +28015,55 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="3:7">
       <c r="G21" s="48" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="59"/>
+      <c r="D31" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -27998,8 +28077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522A1BF3-CE28-FC4D-B0ED-A8DF30BA63C3}">
   <dimension ref="D9:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="B33" zoomScale="68" workbookViewId="0">
-      <selection activeCell="T53" sqref="T53"/>
+    <sheetView topLeftCell="A5" zoomScale="50" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28010,38 +28089,22 @@
       </c>
     </row>
     <row r="12" spans="4:16">
-      <c r="N12" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="48" t="s">
-        <v>77</v>
-      </c>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
     </row>
     <row r="13" spans="4:16">
-      <c r="P13" s="48" t="s">
-        <v>78</v>
-      </c>
+      <c r="P13" s="48"/>
     </row>
     <row r="14" spans="4:16">
-      <c r="P14" s="48" t="s">
-        <v>79</v>
-      </c>
+      <c r="P14" s="48"/>
     </row>
     <row r="15" spans="4:16">
-      <c r="P15" s="48" t="s">
-        <v>80</v>
-      </c>
+      <c r="P15" s="48"/>
     </row>
     <row r="17" spans="15:16">
-      <c r="O17" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="48" t="s">
-        <v>82</v>
-      </c>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
